--- a/ExperimentResult/summary.xlsx
+++ b/ExperimentResult/summary.xlsx
@@ -146,14 +146,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -453,33 +453,33 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -491,13 +491,13 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -514,35 +514,83 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="B3" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="B4" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/ExperimentResult/summary.xlsx
+++ b/ExperimentResult/summary.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +95,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -110,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -133,13 +141,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,6 +188,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -603,4 +655,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.68</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1.21</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.34</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>